--- a/pruebaV2.xlsx
+++ b/pruebaV2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpmcm\OneDrive\Escritorio\Matemática Fundamental\Proposicion 17 aplicación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpmcm\OneDrive\Escritorio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{109C53FF-F979-4E4A-9946-12E84712EA7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D94FE5-D976-4A07-9632-BA5C70AFC296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1727DDF4-7DA7-47F0-A43C-994623D20B20}"/>
   </bookViews>
@@ -119,9 +119,6 @@
     <t>Señalar el punto $D$</t>
   </si>
   <si>
-    <t>$\angle DCA &gt;  \angle ABC$</t>
-  </si>
-  <si>
     <t>Axioma II</t>
   </si>
   <si>
@@ -144,6 +141,9 @@
   </si>
   <si>
     <t>$\angle  ACB + \angle ACD = 2 ∟$</t>
+  </si>
+  <si>
+    <t>$\angle ACD &gt;  \angle ABC$</t>
   </si>
 </sst>
 </file>
@@ -521,7 +521,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -658,7 +658,7 @@
         <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
@@ -689,10 +689,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
@@ -706,10 +706,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
@@ -723,16 +723,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
         <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -740,10 +740,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -751,7 +751,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
